--- a/natmiOut/OldD2/LR-pairs_lrc2p/Nts-Sort1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Nts-Sort1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Nts</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.68279333966117</v>
+        <v>1.698697</v>
       </c>
       <c r="H2">
-        <v>1.68279333966117</v>
+        <v>3.397394</v>
       </c>
       <c r="I2">
-        <v>0.4647243082307469</v>
+        <v>0.4272261608642926</v>
       </c>
       <c r="J2">
-        <v>0.4647243082307469</v>
+        <v>0.3367591488842046</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.461407530318915</v>
+        <v>0.500046</v>
       </c>
       <c r="N2">
-        <v>0.461407530318915</v>
+        <v>1.000092</v>
       </c>
       <c r="O2">
-        <v>0.01953304342673219</v>
+        <v>0.02009953378395692</v>
       </c>
       <c r="P2">
-        <v>0.01953304342673219</v>
+        <v>0.01521121714331422</v>
       </c>
       <c r="Q2">
-        <v>0.7764535188901796</v>
+        <v>0.8494266400620001</v>
       </c>
       <c r="R2">
-        <v>0.7764535188901796</v>
+        <v>3.397706560248</v>
       </c>
       <c r="S2">
-        <v>0.009077480094129254</v>
+        <v>0.008587046653682064</v>
       </c>
       <c r="T2">
-        <v>0.009077480094129254</v>
+        <v>0.005122516538675318</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.68279333966117</v>
+        <v>1.698697</v>
       </c>
       <c r="H3">
-        <v>1.68279333966117</v>
+        <v>3.397394</v>
       </c>
       <c r="I3">
-        <v>0.4647243082307469</v>
+        <v>0.4272261608642926</v>
       </c>
       <c r="J3">
-        <v>0.4647243082307469</v>
+        <v>0.3367591488842046</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.654092394347995</v>
+        <v>0.821983</v>
       </c>
       <c r="N3">
-        <v>0.654092394347995</v>
+        <v>2.465949</v>
       </c>
       <c r="O3">
-        <v>0.02769008805526827</v>
+        <v>0.03303991048491191</v>
       </c>
       <c r="P3">
-        <v>0.02769008805526827</v>
+        <v>0.03750663509291002</v>
       </c>
       <c r="Q3">
-        <v>1.100702324731834</v>
+        <v>1.396300056151</v>
       </c>
       <c r="R3">
-        <v>1.100702324731834</v>
+        <v>8.377800336906001</v>
       </c>
       <c r="S3">
-        <v>0.01286825701633302</v>
+        <v>0.01411551411176881</v>
       </c>
       <c r="T3">
-        <v>0.01286825701633302</v>
+        <v>0.01263070251139882</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.68279333966117</v>
+        <v>1.698697</v>
       </c>
       <c r="H4">
-        <v>1.68279333966117</v>
+        <v>3.397394</v>
       </c>
       <c r="I4">
-        <v>0.4647243082307469</v>
+        <v>0.4272261608642926</v>
       </c>
       <c r="J4">
-        <v>0.4647243082307469</v>
+        <v>0.3367591488842046</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.8291232923892</v>
+        <v>7.086962666666667</v>
       </c>
       <c r="N4">
-        <v>6.8291232923892</v>
+        <v>21.260888</v>
       </c>
       <c r="O4">
-        <v>0.2891013975098061</v>
+        <v>0.2848630836849173</v>
       </c>
       <c r="P4">
-        <v>0.2891013975098061</v>
+        <v>0.3233742335981926</v>
       </c>
       <c r="Q4">
-        <v>11.49200319215751</v>
+        <v>12.03860222097867</v>
       </c>
       <c r="R4">
-        <v>11.49200319215751</v>
+        <v>72.231613325872</v>
       </c>
       <c r="S4">
-        <v>0.1343524469662868</v>
+        <v>0.1217009616146709</v>
       </c>
       <c r="T4">
-        <v>0.1343524469662868</v>
+        <v>0.1088992316776093</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.68279333966117</v>
+        <v>1.698697</v>
       </c>
       <c r="H5">
-        <v>1.68279333966117</v>
+        <v>3.397394</v>
       </c>
       <c r="I5">
-        <v>0.4647243082307469</v>
+        <v>0.4272261608642926</v>
       </c>
       <c r="J5">
-        <v>0.4647243082307469</v>
+        <v>0.3367591488842046</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.33955543897952</v>
+        <v>6.510773</v>
       </c>
       <c r="N5">
-        <v>6.33955543897952</v>
+        <v>19.532319</v>
       </c>
       <c r="O5">
-        <v>0.2683762261317538</v>
+        <v>0.2617029270770581</v>
       </c>
       <c r="P5">
-        <v>0.2683762261317538</v>
+        <v>0.2970830139841956</v>
       </c>
       <c r="Q5">
-        <v>10.66816166912748</v>
+        <v>11.059830562781</v>
       </c>
       <c r="R5">
-        <v>10.66816166912748</v>
+        <v>66.35898337668601</v>
       </c>
       <c r="S5">
-        <v>0.1247209560346578</v>
+        <v>0.1118063368220794</v>
       </c>
       <c r="T5">
-        <v>0.1247209560346578</v>
+        <v>0.1000454229372719</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.68279333966117</v>
+        <v>1.698697</v>
       </c>
       <c r="H6">
-        <v>1.68279333966117</v>
+        <v>3.397394</v>
       </c>
       <c r="I6">
-        <v>0.4647243082307469</v>
+        <v>0.4272261608642926</v>
       </c>
       <c r="J6">
-        <v>0.4647243082307469</v>
+        <v>0.3367591488842046</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.960635674751374</v>
+        <v>1.570313333333333</v>
       </c>
       <c r="N6">
-        <v>0.960635674751374</v>
+        <v>4.71094</v>
       </c>
       <c r="O6">
-        <v>0.04066716973435044</v>
+        <v>0.06311932481158002</v>
       </c>
       <c r="P6">
-        <v>0.04066716973435044</v>
+        <v>0.07165253925551318</v>
       </c>
       <c r="Q6">
-        <v>1.616551315312526</v>
+        <v>2.667486548393333</v>
       </c>
       <c r="R6">
-        <v>1.616551315312526</v>
+        <v>16.00491929036</v>
       </c>
       <c r="S6">
-        <v>0.01889902232249838</v>
+        <v>0.02696622681559762</v>
       </c>
       <c r="T6">
-        <v>0.01889902232249838</v>
+        <v>0.02412964813507867</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.68279333966117</v>
+        <v>1.698697</v>
       </c>
       <c r="H7">
-        <v>1.68279333966117</v>
+        <v>3.397394</v>
       </c>
       <c r="I7">
-        <v>0.4647243082307469</v>
+        <v>0.4272261608642926</v>
       </c>
       <c r="J7">
-        <v>0.4647243082307469</v>
+        <v>0.3367591488842046</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.377082177539499</v>
+        <v>8.3884095</v>
       </c>
       <c r="N7">
-        <v>8.377082177539499</v>
+        <v>16.776819</v>
       </c>
       <c r="O7">
-        <v>0.3546320751420892</v>
+        <v>0.3371752201575759</v>
       </c>
       <c r="P7">
-        <v>0.3546320751420892</v>
+        <v>0.2551723609258745</v>
       </c>
       <c r="Q7">
-        <v>14.09689809415776</v>
+        <v>14.2493660524215</v>
       </c>
       <c r="R7">
-        <v>14.09689809415776</v>
+        <v>56.997464209686</v>
       </c>
       <c r="S7">
-        <v>0.1648061457968417</v>
+        <v>0.1440500748464938</v>
       </c>
       <c r="T7">
-        <v>0.1648061457968417</v>
+        <v>0.08593162708417056</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.93826394066001</v>
+        <v>2.136283666666667</v>
       </c>
       <c r="H8">
-        <v>1.93826394066001</v>
+        <v>6.408851</v>
       </c>
       <c r="I8">
-        <v>0.5352756917692532</v>
+        <v>0.537280203254079</v>
       </c>
       <c r="J8">
-        <v>0.5352756917692532</v>
+        <v>0.635263148191138</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.461407530318915</v>
+        <v>0.500046</v>
       </c>
       <c r="N8">
-        <v>0.461407530318915</v>
+        <v>1.000092</v>
       </c>
       <c r="O8">
-        <v>0.01953304342673219</v>
+        <v>0.02009953378395692</v>
       </c>
       <c r="P8">
-        <v>0.01953304342673219</v>
+        <v>0.01521121714331422</v>
       </c>
       <c r="Q8">
-        <v>0.8943295779661432</v>
+        <v>1.068240102382</v>
       </c>
       <c r="R8">
-        <v>0.8943295779661432</v>
+        <v>6.409440614292</v>
       </c>
       <c r="S8">
-        <v>0.01045556333260294</v>
+        <v>0.0107990815967566</v>
       </c>
       <c r="T8">
-        <v>0.01045556333260294</v>
+        <v>0.009663125690280801</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.93826394066001</v>
+        <v>2.136283666666667</v>
       </c>
       <c r="H9">
-        <v>1.93826394066001</v>
+        <v>6.408851</v>
       </c>
       <c r="I9">
-        <v>0.5352756917692532</v>
+        <v>0.537280203254079</v>
       </c>
       <c r="J9">
-        <v>0.5352756917692532</v>
+        <v>0.635263148191138</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.654092394347995</v>
+        <v>0.821983</v>
       </c>
       <c r="N9">
-        <v>0.654092394347995</v>
+        <v>2.465949</v>
       </c>
       <c r="O9">
-        <v>0.02769008805526827</v>
+        <v>0.03303991048491191</v>
       </c>
       <c r="P9">
-        <v>0.02769008805526827</v>
+        <v>0.03750663509291002</v>
       </c>
       <c r="Q9">
-        <v>1.267803701824686</v>
+        <v>1.755988857177667</v>
       </c>
       <c r="R9">
-        <v>1.267803701824686</v>
+        <v>15.803899714599</v>
       </c>
       <c r="S9">
-        <v>0.01482183103893526</v>
+        <v>0.01775168982083005</v>
       </c>
       <c r="T9">
-        <v>0.01482183103893526</v>
+        <v>0.02382658308717824</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.93826394066001</v>
+        <v>2.136283666666667</v>
       </c>
       <c r="H10">
-        <v>1.93826394066001</v>
+        <v>6.408851</v>
       </c>
       <c r="I10">
-        <v>0.5352756917692532</v>
+        <v>0.537280203254079</v>
       </c>
       <c r="J10">
-        <v>0.5352756917692532</v>
+        <v>0.635263148191138</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.8291232923892</v>
+        <v>7.086962666666667</v>
       </c>
       <c r="N10">
-        <v>6.8291232923892</v>
+        <v>21.260888</v>
       </c>
       <c r="O10">
-        <v>0.2891013975098061</v>
+        <v>0.2848630836849173</v>
       </c>
       <c r="P10">
-        <v>0.2891013975098061</v>
+        <v>0.3233742335981926</v>
       </c>
       <c r="Q10">
-        <v>13.23664342395935</v>
+        <v>15.13976259107645</v>
       </c>
       <c r="R10">
-        <v>13.23664342395935</v>
+        <v>136.257863319688</v>
       </c>
       <c r="S10">
-        <v>0.1547489505435193</v>
+        <v>0.1530512955018161</v>
       </c>
       <c r="T10">
-        <v>0.1547489505435193</v>
+        <v>0.2054277336794843</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.93826394066001</v>
+        <v>2.136283666666667</v>
       </c>
       <c r="H11">
-        <v>1.93826394066001</v>
+        <v>6.408851</v>
       </c>
       <c r="I11">
-        <v>0.5352756917692532</v>
+        <v>0.537280203254079</v>
       </c>
       <c r="J11">
-        <v>0.5352756917692532</v>
+        <v>0.635263148191138</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.33955543897952</v>
+        <v>6.510773</v>
       </c>
       <c r="N11">
-        <v>6.33955543897952</v>
+        <v>19.532319</v>
       </c>
       <c r="O11">
-        <v>0.2683762261317538</v>
+        <v>0.2617029270770581</v>
       </c>
       <c r="P11">
-        <v>0.2683762261317538</v>
+        <v>0.2970830139841956</v>
       </c>
       <c r="Q11">
-        <v>12.28773170718904</v>
+        <v>13.90885801727434</v>
       </c>
       <c r="R11">
-        <v>12.28773170718904</v>
+        <v>125.179722155469</v>
       </c>
       <c r="S11">
-        <v>0.1436552700970961</v>
+        <v>0.1406078018521492</v>
       </c>
       <c r="T11">
-        <v>0.1436552700970961</v>
+        <v>0.188725890737712</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.93826394066001</v>
+        <v>2.136283666666667</v>
       </c>
       <c r="H12">
-        <v>1.93826394066001</v>
+        <v>6.408851</v>
       </c>
       <c r="I12">
-        <v>0.5352756917692532</v>
+        <v>0.537280203254079</v>
       </c>
       <c r="J12">
-        <v>0.5352756917692532</v>
+        <v>0.635263148191138</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.960635674751374</v>
+        <v>1.570313333333333</v>
       </c>
       <c r="N12">
-        <v>0.960635674751374</v>
+        <v>4.71094</v>
       </c>
       <c r="O12">
-        <v>0.04066716973435044</v>
+        <v>0.06311932481158002</v>
       </c>
       <c r="P12">
-        <v>0.04066716973435044</v>
+        <v>0.07165253925551318</v>
       </c>
       <c r="Q12">
-        <v>1.861965488482186</v>
+        <v>3.354634725548889</v>
       </c>
       <c r="R12">
-        <v>1.861965488482186</v>
+        <v>30.19171252994</v>
       </c>
       <c r="S12">
-        <v>0.02176814741185207</v>
+        <v>0.03391276366402594</v>
       </c>
       <c r="T12">
-        <v>0.02176814741185207</v>
+        <v>0.04551821766334641</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.136283666666667</v>
+      </c>
+      <c r="H13">
+        <v>6.408851</v>
+      </c>
+      <c r="I13">
+        <v>0.537280203254079</v>
+      </c>
+      <c r="J13">
+        <v>0.635263148191138</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.3884095</v>
+      </c>
+      <c r="N13">
+        <v>16.776819</v>
+      </c>
+      <c r="O13">
+        <v>0.3371752201575759</v>
+      </c>
+      <c r="P13">
+        <v>0.2551723609258745</v>
+      </c>
+      <c r="Q13">
+        <v>17.9200222041615</v>
+      </c>
+      <c r="R13">
+        <v>107.520133224969</v>
+      </c>
+      <c r="S13">
+        <v>0.1811575708185012</v>
+      </c>
+      <c r="T13">
+        <v>0.1621015973331364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.1411265</v>
+      </c>
+      <c r="H14">
+        <v>0.282253</v>
+      </c>
+      <c r="I14">
+        <v>0.03549363588162844</v>
+      </c>
+      <c r="J14">
+        <v>0.02797770292465736</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.500046</v>
+      </c>
+      <c r="N14">
+        <v>1.000092</v>
+      </c>
+      <c r="O14">
+        <v>0.02009953378395692</v>
+      </c>
+      <c r="P14">
+        <v>0.01521121714331422</v>
+      </c>
+      <c r="Q14">
+        <v>0.070569741819</v>
+      </c>
+      <c r="R14">
+        <v>0.282278967276</v>
+      </c>
+      <c r="S14">
+        <v>0.0007134055335182564</v>
+      </c>
+      <c r="T14">
+        <v>0.0004255749143581005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.1411265</v>
+      </c>
+      <c r="H15">
+        <v>0.282253</v>
+      </c>
+      <c r="I15">
+        <v>0.03549363588162844</v>
+      </c>
+      <c r="J15">
+        <v>0.02797770292465736</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.821983</v>
+      </c>
+      <c r="N15">
+        <v>2.465949</v>
+      </c>
+      <c r="O15">
+        <v>0.03303991048491191</v>
+      </c>
+      <c r="P15">
+        <v>0.03750663509291002</v>
+      </c>
+      <c r="Q15">
+        <v>0.1160035838495</v>
+      </c>
+      <c r="R15">
+        <v>0.6960215030969999</v>
+      </c>
+      <c r="S15">
+        <v>0.001172706552313061</v>
+      </c>
+      <c r="T15">
+        <v>0.001049349494332965</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.1411265</v>
+      </c>
+      <c r="H16">
+        <v>0.282253</v>
+      </c>
+      <c r="I16">
+        <v>0.03549363588162844</v>
+      </c>
+      <c r="J16">
+        <v>0.02797770292465736</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>7.086962666666667</v>
+      </c>
+      <c r="N16">
+        <v>21.260888</v>
+      </c>
+      <c r="O16">
+        <v>0.2848630836849173</v>
+      </c>
+      <c r="P16">
+        <v>0.3233742335981926</v>
+      </c>
+      <c r="Q16">
+        <v>1.000158236777333</v>
+      </c>
+      <c r="R16">
+        <v>6.000949420664</v>
+      </c>
+      <c r="S16">
+        <v>0.0101108265684303</v>
+      </c>
+      <c r="T16">
+        <v>0.009047268241098985</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.93826394066001</v>
-      </c>
-      <c r="H13">
-        <v>1.93826394066001</v>
-      </c>
-      <c r="I13">
-        <v>0.5352756917692532</v>
-      </c>
-      <c r="J13">
-        <v>0.5352756917692532</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>8.377082177539499</v>
-      </c>
-      <c r="N13">
-        <v>8.377082177539499</v>
-      </c>
-      <c r="O13">
-        <v>0.3546320751420892</v>
-      </c>
-      <c r="P13">
-        <v>0.3546320751420892</v>
-      </c>
-      <c r="Q13">
-        <v>16.23699631267045</v>
-      </c>
-      <c r="R13">
-        <v>16.23699631267045</v>
-      </c>
-      <c r="S13">
-        <v>0.1898259293452476</v>
-      </c>
-      <c r="T13">
-        <v>0.1898259293452476</v>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.1411265</v>
+      </c>
+      <c r="H17">
+        <v>0.282253</v>
+      </c>
+      <c r="I17">
+        <v>0.03549363588162844</v>
+      </c>
+      <c r="J17">
+        <v>0.02797770292465736</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.510773</v>
+      </c>
+      <c r="N17">
+        <v>19.532319</v>
+      </c>
+      <c r="O17">
+        <v>0.2617029270770581</v>
+      </c>
+      <c r="P17">
+        <v>0.2970830139841956</v>
+      </c>
+      <c r="Q17">
+        <v>0.9188426057844999</v>
+      </c>
+      <c r="R17">
+        <v>5.513055634706999</v>
+      </c>
+      <c r="S17">
+        <v>0.009288788402829458</v>
+      </c>
+      <c r="T17">
+        <v>0.008311700309211653</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.1411265</v>
+      </c>
+      <c r="H18">
+        <v>0.282253</v>
+      </c>
+      <c r="I18">
+        <v>0.03549363588162844</v>
+      </c>
+      <c r="J18">
+        <v>0.02797770292465736</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.570313333333333</v>
+      </c>
+      <c r="N18">
+        <v>4.71094</v>
+      </c>
+      <c r="O18">
+        <v>0.06311932481158002</v>
+      </c>
+      <c r="P18">
+        <v>0.07165253925551318</v>
+      </c>
+      <c r="Q18">
+        <v>0.2216128246366666</v>
+      </c>
+      <c r="R18">
+        <v>1.32967694782</v>
+      </c>
+      <c r="S18">
+        <v>0.002240334331956457</v>
+      </c>
+      <c r="T18">
+        <v>0.002004673457088098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.1411265</v>
+      </c>
+      <c r="H19">
+        <v>0.282253</v>
+      </c>
+      <c r="I19">
+        <v>0.03549363588162844</v>
+      </c>
+      <c r="J19">
+        <v>0.02797770292465736</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>8.3884095</v>
+      </c>
+      <c r="N19">
+        <v>16.776819</v>
+      </c>
+      <c r="O19">
+        <v>0.3371752201575759</v>
+      </c>
+      <c r="P19">
+        <v>0.2551723609258745</v>
+      </c>
+      <c r="Q19">
+        <v>1.18382687330175</v>
+      </c>
+      <c r="R19">
+        <v>4.735307493206999</v>
+      </c>
+      <c r="S19">
+        <v>0.0119675744925809</v>
+      </c>
+      <c r="T19">
+        <v>0.007139136508567564</v>
       </c>
     </row>
   </sheetData>
